--- a/biology/Botanique/Ilex_opaca/Ilex_opaca.xlsx
+++ b/biology/Botanique/Ilex_opaca/Ilex_opaca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le houx américain (Ilex opaca) est un petit arbre à feuilles persistantes appartenant au genre Ilex de la famille des Aquifoliacées, cultivé comme arbuste d'ornement.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le houx commun est un grand arbuste, ou un arbre, à port érigé, pouvant atteindre 15 m de haut.
 Les feuilles coriaces, elliptiques-oblongues ont de 10 à 15 cm de long. Ces feuilles persistantes, vert foncé, mates, sont le plus souvent entières et sans épines.
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est native du centre et de l'Est des États-Unis, du Massachusetts au Texas et de la Floride au Missouri.
 </t>
@@ -575,7 +591,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le houx américain est cultivé dans les parcs et jardins comme arbre d'ornement. Ses rameaux ornés de baies rouges servent de décor de Noël en Amérique du Nord. C'est le plus connu des houx d'Amérique.
 </t>
